--- a/Characters/DataTables/IttoTables.xlsx
+++ b/Characters/DataTables/IttoTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GenshinCoding\GenshinIndex\Characters\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC25FEB-2DA2-4BE7-90AE-5C9561E214E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44946CB7-0BFD-448C-8C42-2CAA4DE1A642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>1_Hit</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>EHoldCD</t>
+  </si>
+  <si>
+    <t>Dash</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -846,6 +849,14 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,10 +1395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2057,6 +2068,56 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
+        <v>0</v>
+      </c>
+      <c r="P14" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2067,10 +2128,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2324,6 +2385,24 @@
       <c r="P5" s="2">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,7 +2416,9 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
